--- a/productos.xlsx
+++ b/productos.xlsx
@@ -451,8 +451,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>417</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -464,8 +466,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>4900</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4900</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -477,8 +481,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>4910</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4910</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -490,8 +496,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>5051</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>5051</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -503,8 +511,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>5056</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5056</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -516,8 +526,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>5066</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5066</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -529,8 +541,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>5071</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>5071</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -542,8 +556,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>5200</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5200</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -555,8 +571,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>5205</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -564,12 +582,14 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>5215</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>5215</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -581,8 +601,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>5220</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>5220</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -594,8 +616,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>5670</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>5670</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -607,8 +631,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>5675</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>5675</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -620,8 +646,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>5685</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>5685</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -633,8 +661,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>5690</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>5690</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -642,12 +672,14 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>8690</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>8690</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -655,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
